--- a/src/test/resources/EXCEL/ChromeTestData.xlsx
+++ b/src/test/resources/EXCEL/ChromeTestData.xlsx
@@ -138,22 +138,22 @@
     <t>kattupallidivya@gmail.com</t>
   </si>
   <si>
-    <t>sharmaishaan@gmail.com</t>
-  </si>
-  <si>
-    <t>stellakomali@gmail.com</t>
-  </si>
-  <si>
-    <t>ravaldarshan@gmail.com</t>
-  </si>
-  <si>
-    <t>reddyphanideep@gmail.com</t>
-  </si>
-  <si>
-    <t>reddyrohini@gmail.com</t>
-  </si>
-  <si>
-    <t>rekhapavitra@gmail.com</t>
+    <t>sharmaishaan123@gmail.com</t>
+  </si>
+  <si>
+    <t>stellakomali123@gmail.com</t>
+  </si>
+  <si>
+    <t>ravaldarshan123@gmail.com</t>
+  </si>
+  <si>
+    <t>reddyphanideep123@gmail.com</t>
+  </si>
+  <si>
+    <t>reddyrohini123@gmail.com</t>
+  </si>
+  <si>
+    <t>rekhapavitra123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
